--- a/Data/Prospection/Classeur1.xlsx
+++ b/Data/Prospection/Classeur1.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\burru\Documents\Spéléo\Topographie\Clot d'Aspres\Synthèse Clot d'Aspres\Data\Prospection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\burru\Documents\Spéléo\Topographie\Vercors\Clot d'Aspres\Synthèse Clot d'Aspres\Data\Prospection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940B298E-F618-42DE-B3F5-EB500F868FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94489734-016C-4660-928A-D43B88615CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{412E3155-C8C2-40BC-8B67-028C32FE8B44}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{412E3155-C8C2-40BC-8B67-028C32FE8B44}"/>
   </bookViews>
   <sheets>
     <sheet name="Vallon de la Fauge-pts-surf-WGS" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'Vallon de la Fauge-pts-surf-WGS'!$A$1:$F$173</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'Vallon de la Fauge-pts-surf-WGS'!$A$1:$F$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="193">
   <si>
     <t>Column1</t>
   </si>
@@ -751,10 +751,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9C829C1-BD4A-4043-99D9-5718FFAD7F30}" name="Vallon_de_la_Fauge_pts_surf_WGS" displayName="Vallon_de_la_Fauge_pts_surf_WGS" ref="A1:G173" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G173" xr:uid="{F9C829C1-BD4A-4043-99D9-5718FFAD7F30}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F173">
-    <sortCondition descending="1" ref="A1:A173"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9C829C1-BD4A-4043-99D9-5718FFAD7F30}" name="Vallon_de_la_Fauge_pts_surf_WGS" displayName="Vallon_de_la_Fauge_pts_surf_WGS" ref="A1:G74" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G74" xr:uid="{F9C829C1-BD4A-4043-99D9-5718FFAD7F30}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F74">
+    <sortCondition descending="1" ref="A1:A74"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1A5B1755-29CC-4441-B7D3-F47C3F9C6473}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="6"/>
@@ -1088,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAF8A16-97C7-4B06-9D8B-A7527A605137}">
-  <dimension ref="A1:K173"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F56" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3019,2148 +3019,6 @@
       <c r="G74" t="str">
         <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
         <v>fix 0 5.58105454349681 45.0284239759713 1607.0 station 0 '0'  entrance</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" t="s">
-        <v>8</v>
-      </c>
-      <c r="G77" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" t="s">
-        <v>8</v>
-      </c>
-      <c r="G79" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" t="s">
-        <v>8</v>
-      </c>
-      <c r="G84" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>8</v>
-      </c>
-      <c r="G86" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G87" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" t="s">
-        <v>8</v>
-      </c>
-      <c r="G88" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" t="s">
-        <v>8</v>
-      </c>
-      <c r="G90" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>8</v>
-      </c>
-      <c r="G92" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" t="s">
-        <v>8</v>
-      </c>
-      <c r="G93" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" t="s">
-        <v>8</v>
-      </c>
-      <c r="G97" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>8</v>
-      </c>
-      <c r="G98" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" t="s">
-        <v>8</v>
-      </c>
-      <c r="G99" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" t="s">
-        <v>8</v>
-      </c>
-      <c r="G103" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>8</v>
-      </c>
-      <c r="G104" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" t="s">
-        <v>8</v>
-      </c>
-      <c r="G105" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" t="s">
-        <v>8</v>
-      </c>
-      <c r="G106" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" t="s">
-        <v>8</v>
-      </c>
-      <c r="G107" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" t="s">
-        <v>8</v>
-      </c>
-      <c r="G108" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" t="s">
-        <v>8</v>
-      </c>
-      <c r="G111" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" t="s">
-        <v>8</v>
-      </c>
-      <c r="G112" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" t="s">
-        <v>8</v>
-      </c>
-      <c r="G113" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" t="s">
-        <v>8</v>
-      </c>
-      <c r="G114" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" t="s">
-        <v>8</v>
-      </c>
-      <c r="G115" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" t="s">
-        <v>8</v>
-      </c>
-      <c r="G116" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" t="s">
-        <v>8</v>
-      </c>
-      <c r="G117" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" t="s">
-        <v>8</v>
-      </c>
-      <c r="F118" t="s">
-        <v>8</v>
-      </c>
-      <c r="G118" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119" t="s">
-        <v>8</v>
-      </c>
-      <c r="G119" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" t="s">
-        <v>8</v>
-      </c>
-      <c r="G121" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
-        <v>8</v>
-      </c>
-      <c r="G122" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" t="s">
-        <v>8</v>
-      </c>
-      <c r="G123" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" t="s">
-        <v>8</v>
-      </c>
-      <c r="F124" t="s">
-        <v>8</v>
-      </c>
-      <c r="G124" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" t="s">
-        <v>8</v>
-      </c>
-      <c r="G125" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" t="s">
-        <v>8</v>
-      </c>
-      <c r="G126" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G127" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" t="s">
-        <v>8</v>
-      </c>
-      <c r="G128" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" t="s">
-        <v>8</v>
-      </c>
-      <c r="G129" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" t="s">
-        <v>8</v>
-      </c>
-      <c r="G130" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>8</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131" t="s">
-        <v>8</v>
-      </c>
-      <c r="G131" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" t="s">
-        <v>8</v>
-      </c>
-      <c r="F132" t="s">
-        <v>8</v>
-      </c>
-      <c r="G132" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" t="s">
-        <v>8</v>
-      </c>
-      <c r="G133" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>8</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" t="s">
-        <v>8</v>
-      </c>
-      <c r="G134" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>8</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" t="s">
-        <v>8</v>
-      </c>
-      <c r="F135" t="s">
-        <v>8</v>
-      </c>
-      <c r="G135" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" t="s">
-        <v>8</v>
-      </c>
-      <c r="F136" t="s">
-        <v>8</v>
-      </c>
-      <c r="G136" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>8</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" t="s">
-        <v>8</v>
-      </c>
-      <c r="F137" t="s">
-        <v>8</v>
-      </c>
-      <c r="G137" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" t="s">
-        <v>8</v>
-      </c>
-      <c r="F138" t="s">
-        <v>8</v>
-      </c>
-      <c r="G138" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" t="s">
-        <v>8</v>
-      </c>
-      <c r="F139" t="s">
-        <v>8</v>
-      </c>
-      <c r="G139" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>8</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" t="s">
-        <v>8</v>
-      </c>
-      <c r="G140" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" t="s">
-        <v>8</v>
-      </c>
-      <c r="F141" t="s">
-        <v>8</v>
-      </c>
-      <c r="G141" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" t="s">
-        <v>8</v>
-      </c>
-      <c r="E142" t="s">
-        <v>8</v>
-      </c>
-      <c r="F142" t="s">
-        <v>8</v>
-      </c>
-      <c r="G142" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>8</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" t="s">
-        <v>8</v>
-      </c>
-      <c r="F143" t="s">
-        <v>8</v>
-      </c>
-      <c r="G143" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>8</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144" t="s">
-        <v>8</v>
-      </c>
-      <c r="F144" t="s">
-        <v>8</v>
-      </c>
-      <c r="G144" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>8</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" t="s">
-        <v>8</v>
-      </c>
-      <c r="G145" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>8</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" t="s">
-        <v>8</v>
-      </c>
-      <c r="F146" t="s">
-        <v>8</v>
-      </c>
-      <c r="G146" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>8</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" t="s">
-        <v>8</v>
-      </c>
-      <c r="F147" t="s">
-        <v>8</v>
-      </c>
-      <c r="G147" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>8</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" t="s">
-        <v>8</v>
-      </c>
-      <c r="E148" t="s">
-        <v>8</v>
-      </c>
-      <c r="F148" t="s">
-        <v>8</v>
-      </c>
-      <c r="G148" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>8</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" t="s">
-        <v>8</v>
-      </c>
-      <c r="E149" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" t="s">
-        <v>8</v>
-      </c>
-      <c r="G149" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>8</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" t="s">
-        <v>8</v>
-      </c>
-      <c r="F150" t="s">
-        <v>8</v>
-      </c>
-      <c r="G150" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>8</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151" t="s">
-        <v>8</v>
-      </c>
-      <c r="G151" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>8</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" t="s">
-        <v>8</v>
-      </c>
-      <c r="G152" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>8</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" t="s">
-        <v>8</v>
-      </c>
-      <c r="F153" t="s">
-        <v>8</v>
-      </c>
-      <c r="G153" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154" t="s">
-        <v>8</v>
-      </c>
-      <c r="G154" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>8</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155" t="s">
-        <v>8</v>
-      </c>
-      <c r="F155" t="s">
-        <v>8</v>
-      </c>
-      <c r="G155" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>8</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" t="s">
-        <v>8</v>
-      </c>
-      <c r="E156" t="s">
-        <v>8</v>
-      </c>
-      <c r="F156" t="s">
-        <v>8</v>
-      </c>
-      <c r="G156" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>8</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" t="s">
-        <v>8</v>
-      </c>
-      <c r="E157" t="s">
-        <v>8</v>
-      </c>
-      <c r="F157" t="s">
-        <v>8</v>
-      </c>
-      <c r="G157" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>8</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F158" t="s">
-        <v>8</v>
-      </c>
-      <c r="G158" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>8</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" t="s">
-        <v>8</v>
-      </c>
-      <c r="F159" t="s">
-        <v>8</v>
-      </c>
-      <c r="G159" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>8</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" t="s">
-        <v>8</v>
-      </c>
-      <c r="E160" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" t="s">
-        <v>8</v>
-      </c>
-      <c r="G160" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="161" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G161" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="162" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G162" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="163" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G163" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="164" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G164" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="165" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G165" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="166" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G166" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="167" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G167" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="168" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G168" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="169" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G169" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="170" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G170" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="171" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G171" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="172" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G172" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
-      </c>
-    </row>
-    <row r="173" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G173" t="str">
-        <f>_xlfn.CONCAT("fix ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column3]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column2]]," ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column4]], " station ",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]]," '",Vallon_de_la_Fauge_pts_surf_WGS[[#This Row],[Column1]],"' "," entrance")</f>
-        <v>fix     station  ''  entrance</v>
       </c>
     </row>
   </sheetData>
